--- a/2024/shuffle-architecute/Teste10/content/results/metrics_8_4.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_8_4.xlsx
@@ -488,297 +488,297 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_0</t>
+          <t>model_8_4_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9689298261509585</v>
+        <v>0.8782693929565597</v>
       </c>
       <c r="C2" t="n">
-        <v>0.73284878627434</v>
+        <v>0.7849983468694623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8247556697631215</v>
+        <v>-0.4232764548481736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9871384615965806</v>
+        <v>0.7828665436743969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9447818576181883</v>
+        <v>0.649083339813934</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1303948760032654</v>
+        <v>0.510877251625061</v>
       </c>
       <c r="H2" t="n">
-        <v>1.786441445350647</v>
+        <v>1.437717080116272</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7159172296524048</v>
+        <v>1.523312091827393</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07688316702842712</v>
+        <v>1.369653940200806</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3964001834392548</v>
+        <v>1.446483373641968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_1</t>
+          <t>model_8_4_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9683778346384948</v>
+        <v>0.873909474658614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7317762231608533</v>
+        <v>0.7849126908224242</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8202750970440198</v>
+        <v>-0.5084801944743123</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9870738050943489</v>
+        <v>0.7701645451344583</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9434800476024018</v>
+        <v>0.6283028847859988</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1327114552259445</v>
+        <v>0.5291749835014343</v>
       </c>
       <c r="H3" t="n">
-        <v>1.79361367225647</v>
+        <v>1.438289880752563</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7342214584350586</v>
+        <v>1.614504456520081</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07726967334747314</v>
+        <v>1.449776768684387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4057456254959106</v>
+        <v>1.532140612602234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_2</t>
+          <t>model_8_4_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9678399460818587</v>
+        <v>0.8828525203562156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7307944401157382</v>
+        <v>0.7846472508171194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8161512910625177</v>
+        <v>-0.3330577135558737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9869610027499793</v>
+        <v>0.7977528055116632</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9422597107531652</v>
+        <v>0.6721862587183081</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1349688470363617</v>
+        <v>0.4916429221630096</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8001788854599</v>
+        <v>1.440064907073975</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7510682344436646</v>
+        <v>1.426752328872681</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07794396579265594</v>
+        <v>1.275753021240234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.414506196975708</v>
+        <v>1.351252794265747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_3</t>
+          <t>model_8_4_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9673218077738371</v>
+        <v>0.8698014407248671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7298970687472548</v>
+        <v>0.7845228231281995</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8123630420549838</v>
+        <v>-0.5882979259221441</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9868139194905243</v>
+        <v>0.759307237965404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9411206233304328</v>
+        <v>0.6096330918891494</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1371433734893799</v>
+        <v>0.5464155077934265</v>
       </c>
       <c r="H5" t="n">
-        <v>1.806179523468018</v>
+        <v>1.440896987915039</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7665442228317261</v>
+        <v>1.699932217597961</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07882320135831833</v>
+        <v>1.518263459205627</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4226834774017334</v>
+        <v>1.609097838401794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_4</t>
+          <t>model_8_4_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9668272653963803</v>
+        <v>0.8659528348607092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7290779760776358</v>
+        <v>0.7839272437760199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8088887961128474</v>
+        <v>-0.6626259771297049</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9866436979352959</v>
+        <v>0.7499856677834851</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9400612081230948</v>
+        <v>0.5928510334770627</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1392188519239426</v>
+        <v>0.5625672340393066</v>
       </c>
       <c r="H6" t="n">
-        <v>1.811656951904297</v>
+        <v>1.444879531860352</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7807374000549316</v>
+        <v>1.779484391212463</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07984074950218201</v>
+        <v>1.577062845230103</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4302887916564941</v>
+        <v>1.678273677825928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_5</t>
+          <t>model_8_4_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9663588726728933</v>
+        <v>0.8875816058433672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.728331280369792</v>
+        <v>0.783683553678172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8057077089897799</v>
+        <v>-0.2386351163130433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9864592026379385</v>
+        <v>0.8151265611644529</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9390791980959912</v>
+        <v>0.6977382174038131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1411846131086349</v>
+        <v>0.471795916557312</v>
       </c>
       <c r="H7" t="n">
-        <v>1.816650032997131</v>
+        <v>1.446509122848511</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7937329411506653</v>
+        <v>1.325693130493164</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08094361424446106</v>
+        <v>1.166161298751831</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4373384714126587</v>
+        <v>1.245927214622498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_6</t>
+          <t>model_8_4_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9659181948909634</v>
+        <v>0.8623625446948516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7276514325295673</v>
+        <v>0.7831984643719245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8027995157302705</v>
+        <v>-0.7315070017354008</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9862672435469624</v>
+        <v>0.7419398342560679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9381718216344361</v>
+        <v>0.5777522692271757</v>
       </c>
       <c r="G8" t="n">
-        <v>0.143034040927887</v>
+        <v>0.5776349306106567</v>
       </c>
       <c r="H8" t="n">
-        <v>1.82119607925415</v>
+        <v>1.449752807617188</v>
       </c>
       <c r="I8" t="n">
-        <v>0.80561363697052</v>
+        <v>1.853206872940063</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08209109306335449</v>
+        <v>1.627815127372742</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4438523650169373</v>
+        <v>1.740510940551758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_7</t>
+          <t>model_8_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9655058169645534</v>
+        <v>0.8590252605303477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7270330960187747</v>
+        <v>0.7823898345325767</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8001445670311426</v>
+        <v>-0.795088135561137</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9860732367546498</v>
+        <v>0.7349593315816388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9373355987915596</v>
+        <v>0.5641567162548771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1447646915912628</v>
+        <v>0.5916407704353333</v>
       </c>
       <c r="H9" t="n">
-        <v>1.825330972671509</v>
+        <v>1.4551602602005</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8164597749710083</v>
+        <v>1.92125678062439</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08325082063674927</v>
+        <v>1.671847343444824</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4498554170131683</v>
+        <v>1.796552181243896</v>
       </c>
     </row>
     <row r="10">
@@ -788,626 +788,626 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9651217587244993</v>
+        <v>0.8922752651425986</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7264712835854297</v>
+        <v>0.781882558378705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7977239427501819</v>
+        <v>-0.1416230151858784</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9858811031796905</v>
+        <v>0.8351058169325387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9365668643060332</v>
+        <v>0.725619911634386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1463765054941177</v>
+        <v>0.4520976543426514</v>
       </c>
       <c r="H10" t="n">
-        <v>1.829087853431702</v>
+        <v>1.458552360534668</v>
       </c>
       <c r="I10" t="n">
-        <v>0.826348602771759</v>
+        <v>1.221862554550171</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08439934998750687</v>
+        <v>1.040134310722351</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4553740620613098</v>
+        <v>1.130998492240906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_9</t>
+          <t>model_8_4_17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9647655596397842</v>
+        <v>0.8559334423597525</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7259613103351334</v>
+        <v>0.7815404101556692</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7955198339157812</v>
+        <v>-0.8535775928936076</v>
       </c>
       <c r="E11" t="n">
-        <v>0.985693911603807</v>
+        <v>0.7288749038392101</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9358617690392609</v>
+        <v>0.5519078117845664</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1478714048862457</v>
+        <v>0.6046165227890015</v>
       </c>
       <c r="H11" t="n">
-        <v>1.832497954368591</v>
+        <v>1.460840225219727</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8353530168533325</v>
+        <v>1.983857274055481</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08551834523677826</v>
+        <v>1.710227251052856</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4604357481002808</v>
+        <v>1.847042202949524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_10</t>
+          <t>model_8_4_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9644363147660555</v>
+        <v>0.8530779677671314</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7254987664373709</v>
+        <v>0.780678544218309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7935149256355334</v>
+        <v>-0.9072277905476342</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9855136713825616</v>
+        <v>0.7235509907341928</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9352162560640976</v>
+        <v>0.5408691196628722</v>
       </c>
       <c r="G12" t="n">
-        <v>0.14925317466259</v>
+        <v>0.6166002750396729</v>
       </c>
       <c r="H12" t="n">
-        <v>1.835591077804565</v>
+        <v>1.466603517532349</v>
       </c>
       <c r="I12" t="n">
-        <v>0.843543529510498</v>
+        <v>2.041278123855591</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08659577369689941</v>
+        <v>1.743809938430786</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4650697708129883</v>
+        <v>1.892543792724609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_11</t>
+          <t>model_8_4_19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9641329676091975</v>
+        <v>0.8504479223880315</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7250796016763594</v>
+        <v>0.7798246427532534</v>
       </c>
       <c r="D13" t="n">
-        <v>0.791693314647464</v>
+        <v>-0.956315988484975</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9853418623239723</v>
+        <v>0.7188756768755415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9346264337688139</v>
+        <v>0.5309188583485065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1505262702703476</v>
+        <v>0.627638041973114</v>
       </c>
       <c r="H13" t="n">
-        <v>1.838393926620483</v>
+        <v>1.472313642501831</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8509852886199951</v>
+        <v>2.093816518783569</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08762280642986298</v>
+        <v>1.773301243782043</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4693040251731873</v>
+        <v>1.933558940887451</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_12</t>
+          <t>model_8_4_20</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.963854202942132</v>
+        <v>0.8480319544354666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7246999478890895</v>
+        <v>0.7789930471410446</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7900396111820297</v>
+        <v>-1.001134092376882</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9851794687693171</v>
+        <v>0.7147589717222647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9340882801283032</v>
+        <v>0.5219503416057609</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1516961753368378</v>
+        <v>0.6377773880958557</v>
       </c>
       <c r="H14" t="n">
-        <v>1.840932846069336</v>
+        <v>1.477874517440796</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8577410578727722</v>
+        <v>2.14178466796875</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08859355002641678</v>
+        <v>1.799268960952759</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4731673002243042</v>
+        <v>1.970527410507202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_13</t>
+          <t>model_8_4_7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9635986438649318</v>
+        <v>0.896570986126516</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7243563865292661</v>
+        <v>0.7789819108507759</v>
       </c>
       <c r="D15" t="n">
-        <v>0.788539789624974</v>
+        <v>-0.0449101325778416</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9850269298254222</v>
+        <v>0.857406809907415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9335980056869007</v>
+        <v>0.7552392507187873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1527687013149261</v>
+        <v>0.4340693950653076</v>
       </c>
       <c r="H15" t="n">
-        <v>1.843230247497559</v>
+        <v>1.477949142456055</v>
       </c>
       <c r="I15" t="n">
-        <v>0.863868236541748</v>
+        <v>1.118352174758911</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0895053967833519</v>
+        <v>0.8994621634483337</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4766868948936462</v>
+        <v>1.008907198905945</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_14</t>
+          <t>model_8_4_21</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9633647623993764</v>
+        <v>0.8458176163912449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7240456102131123</v>
+        <v>0.7781936789282593</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7871801875925003</v>
+        <v>-1.041981744511751</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9848844397334</v>
+        <v>0.7111248362127234</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9331517983344417</v>
+        <v>0.513866844046827</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1537502408027649</v>
+        <v>0.6470704674720764</v>
       </c>
       <c r="H16" t="n">
-        <v>1.845308303833008</v>
+        <v>1.483219861984253</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8694225549697876</v>
+        <v>2.185503482818604</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09035716950893402</v>
+        <v>1.822192668914795</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4798901081085205</v>
+        <v>2.003847599029541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_15</t>
+          <t>model_8_4_22</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9631512109588484</v>
+        <v>0.8437922660847204</v>
       </c>
       <c r="C17" t="n">
-        <v>0.723764603871472</v>
+        <v>0.7774330254846881</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7859488965028014</v>
+        <v>-1.079148368421547</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9847519890090494</v>
+        <v>0.7079102230781353</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9327463160294733</v>
+        <v>0.5065818973374728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1546464860439301</v>
+        <v>0.6555704474449158</v>
       </c>
       <c r="H17" t="n">
-        <v>1.847187519073486</v>
+        <v>1.488306403160095</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8744526505470276</v>
+        <v>2.225282430648804</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09114892035722733</v>
+        <v>1.842470169067383</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4828009605407715</v>
+        <v>2.033876180648804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_16</t>
+          <t>model_8_4_23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9629565004560846</v>
+        <v>0.8419433673469578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7235106627654659</v>
+        <v>0.7767150850932332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7848344700725645</v>
+        <v>-1.112920128443601</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9846293177034663</v>
+        <v>0.7050619063336794</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9323781798865738</v>
+        <v>0.5000180811141629</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1554636359214783</v>
+        <v>0.6633298397064209</v>
       </c>
       <c r="H18" t="n">
-        <v>1.848885536193848</v>
+        <v>1.493107318878174</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8790053725242615</v>
+        <v>2.261427879333496</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09188222140073776</v>
+        <v>1.860437035560608</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4854437708854675</v>
+        <v>2.060932397842407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_17</t>
+          <t>model_8_4_24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9627791977039795</v>
+        <v>0.8402581911330916</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7232812862946854</v>
+        <v>0.7760418777956358</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7838263512798218</v>
+        <v>-1.143569653533436</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9845161281256898</v>
+        <v>0.7025337900222697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9320442127945628</v>
+        <v>0.4941045976447411</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1562077403068542</v>
+        <v>0.6704022288322449</v>
       </c>
       <c r="H19" t="n">
-        <v>1.850419282913208</v>
+        <v>1.49760901927948</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8831237554550171</v>
+        <v>2.294231414794922</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0925588384270668</v>
+        <v>1.876384139060974</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4878412485122681</v>
+        <v>2.085307836532593</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_18</t>
+          <t>model_8_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9626179777956047</v>
+        <v>0.8998682389638223</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7230741867022533</v>
+        <v>0.774719740795454</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7829148301036626</v>
+        <v>0.04685710033639079</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9844120372074743</v>
+        <v>0.8812084065588341</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9317415199518709</v>
+        <v>0.7853646865185637</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1568843424320221</v>
+        <v>0.4202315509319305</v>
       </c>
       <c r="H20" t="n">
-        <v>1.851804256439209</v>
+        <v>1.506450176239014</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8868476152420044</v>
+        <v>1.020134925842285</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0931810736656189</v>
+        <v>0.7493243217468262</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4900141954421997</v>
+        <v>0.8847297430038452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_19</t>
+          <t>model_8_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.962471541772308</v>
+        <v>0.9013593933651245</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7228872147998764</v>
+        <v>0.7688850920329161</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7820912663097609</v>
+        <v>0.1277369509049968</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9843165013891956</v>
+        <v>0.9052345203158331</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9314673852996356</v>
+        <v>0.8142484700409374</v>
       </c>
       <c r="G21" t="n">
-        <v>0.15749891102314</v>
+        <v>0.4139735400676727</v>
       </c>
       <c r="H21" t="n">
-        <v>1.853054523468018</v>
+        <v>1.545466423034668</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8902120590209961</v>
+        <v>0.9335705041885376</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0937521681189537</v>
+        <v>0.5977702140808105</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4919821918010712</v>
+        <v>0.7656703591346741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_20</t>
+          <t>model_8_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.962338592465724</v>
+        <v>0.9001501924314076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.722718496495093</v>
+        <v>0.7613434034259583</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7813469979209721</v>
+        <v>0.193545359508661</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9842289975012886</v>
+        <v>0.9278668145789459</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9312191633087609</v>
+        <v>0.8401090967629073</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1580568701028824</v>
+        <v>0.4190482795238495</v>
       </c>
       <c r="H22" t="n">
-        <v>1.854182720184326</v>
+        <v>1.595897793769836</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8932526111602783</v>
+        <v>0.8631367087364197</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09427523612976074</v>
+        <v>0.4550081789493561</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4937641322612762</v>
+        <v>0.6590725183486938</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_21</t>
+          <t>model_8_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9622180621901557</v>
+        <v>0.8954604810792169</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7225662695220161</v>
+        <v>0.7520205281811067</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7806747952077913</v>
+        <v>0.2477021852659487</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9841490357928512</v>
+        <v>0.9473210664438797</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9309946406897391</v>
+        <v>0.8620253850201961</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1585627198219299</v>
+        <v>0.438730001449585</v>
       </c>
       <c r="H23" t="n">
-        <v>1.8552006483078</v>
+        <v>1.658239841461182</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8959986567497253</v>
+        <v>0.805173397064209</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09475323557853699</v>
+        <v>0.332292914390564</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4953759014606476</v>
+        <v>0.568733274936676</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_22</t>
+          <t>model_8_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9621089151850551</v>
+        <v>0.8865079311375625</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7224289820182082</v>
+        <v>0.7407513354191296</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7800684000854007</v>
+        <v>0.2949297013555452</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9840761128806595</v>
+        <v>0.9623728632484373</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9307917282784788</v>
+        <v>0.8796735754990436</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1590207666158676</v>
+        <v>0.476301908493042</v>
       </c>
       <c r="H24" t="n">
-        <v>1.856118679046631</v>
+        <v>1.733597040176392</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8984759449958801</v>
+        <v>0.7546265125274658</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09518915414810181</v>
+        <v>0.2373478412628174</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4968325793743134</v>
+        <v>0.495987206697464</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_23</t>
+          <t>model_8_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9620100845258538</v>
+        <v>0.8720783714226809</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7223051837052328</v>
+        <v>0.7271225129350201</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7795211579403781</v>
+        <v>0.3252697520247499</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9840096260408127</v>
+        <v>0.9729505711826729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9306083338459631</v>
+        <v>0.8917060229011745</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1594355553388596</v>
+        <v>0.5368596911430359</v>
       </c>
       <c r="H25" t="n">
-        <v>1.856946587562561</v>
+        <v>1.824733018875122</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9007115960121155</v>
+        <v>0.7221539616584778</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09558659046888351</v>
+        <v>0.1706248223781586</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4981491565704346</v>
+        <v>0.4463892579078674</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_24</t>
+          <t>model_8_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9619206301721098</v>
+        <v>0.8508490687292589</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7221935875910568</v>
+        <v>0.7104421265410314</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7790271079347526</v>
+        <v>0.3297718099713713</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9839492073758916</v>
+        <v>0.9795575760533229</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9304426082084994</v>
+        <v>0.8973458076170405</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1598109602928162</v>
+        <v>0.6259545683860779</v>
       </c>
       <c r="H26" t="n">
-        <v>1.857692837715149</v>
+        <v>1.936274886131287</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9027299284934998</v>
+        <v>0.7173355221748352</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0959477573633194</v>
+        <v>0.1289485543966293</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4993388652801514</v>
+        <v>0.4231420159339905</v>
       </c>
     </row>
   </sheetData>
